--- a/create_json/musicsketch_faqs.xlsx
+++ b/create_json/musicsketch_faqs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/jwalecka.github.io/create_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D342E-4C01-4145-96FC-75F3BB2B7D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D23569-81E8-6048-AFE4-81FC8890AC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="29280" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
   </bookViews>
@@ -261,14 +261,79 @@
     <t>The DIBO is our unique and patent pending Direct Interface BOard that we developed to make it easy and fast to enter music notation. The circular buttons on the DIBO map directly to the staff in either clef.</t>
   </si>
   <si>
-    <t>testing this</t>
+    <r>
+      <t xml:space="preserve">We designed the MusicSketch app so that you can capture a riff on-the-go. We want our app to be easy to learn and easy to use, even if you are writing an entire piano score. We are committed to supporting a collaborative experience at many levels; the first release provides the ability to easily share song files so multiple people can work together on a music idea./nOur innovative </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">irect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nterface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ard (DIBO) allows for quick and easy note entry, and the additional UI adapts additional notation elements.  To achieve these goals we oriented on a design point around notation critical for Lead Sheets.  While our platform doesn’t capture the entire functionality of desktop music publishing software, we think the tradeoff for speed, simplicity, and accessibility is more than worth it. /nWe appreciate and welcome input from all of our users.  New capabilities are in the works, but we will continue to make trade-offs to ensure that the MusicSketch App remains uncluttered and easy to use, allowing musicians at all levels to focus on their creative ideas.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +344,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -641,7 +714,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
     </row>

--- a/create_json/musicsketch_faqs.xlsx
+++ b/create_json/musicsketch_faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/jwalecka.github.io/create_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D23569-81E8-6048-AFE4-81FC8890AC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCDA9C-67F0-054F-9B4F-7289EC2545FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="29280" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Overview</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">Only songs in the My Songs folder can be edited. To edit Demo Songs and Accompaniments you have to duplicate them first, which will add them to the My Songs folder. </t>
-  </si>
-  <si>
-    <t>Is there a way to undo my last change?</t>
   </si>
   <si>
     <t>To undo an action or sequence of actions, shake your iPhone and select Undo.</t>
@@ -327,6 +324,12 @@
       </rPr>
       <t>ard (DIBO) allows for quick and easy note entry, and the additional UI adapts additional notation elements.  To achieve these goals we oriented on a design point around notation critical for Lead Sheets.  While our platform doesn’t capture the entire functionality of desktop music publishing software, we think the tradeoff for speed, simplicity, and accessibility is more than worth it. /nWe appreciate and welcome input from all of our users.  New capabilities are in the works, but we will continue to make trade-offs to ensure that the MusicSketch App remains uncluttered and easy to use, allowing musicians at all levels to focus on their creative ideas.</t>
     </r>
+  </si>
+  <si>
+    <t>Is there a way to undo my last song change?</t>
+  </si>
+  <si>
+    <t>Is there a way to undo my last notation change?</t>
   </si>
 </sst>
 </file>
@@ -698,12 +701,13 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -715,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,208 +892,208 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/create_json/musicsketch_faqs.xlsx
+++ b/create_json/musicsketch_faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/jwalecka.github.io/create_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCDA9C-67F0-054F-9B4F-7289EC2545FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0767E68-C5D9-7B46-A258-15A0E2BD4507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="29280" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="31520" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Add notes above or below the staff by tapping the small DIBO icons at the top and bottom of the DIBO, or by swiping up or down on the DIBO.</t>
-  </si>
-  <si>
-    <t>To undo an action or sequence of actions, shake the iPhone and select undo from the pop up menu.  Most, but not all actions can be undone.</t>
   </si>
   <si>
     <t>What limits to notation are there in the app?</t>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Is there a way to undo my last notation change?</t>
+  </si>
+  <si>
+    <t>To undo an action or sequence of actions, shake the iPhone and select undo from the pop up menu.  Most, but not all notation related actions can be undone.</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1002,10 +1002,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,87 +1013,87 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/create_json/musicsketch_faqs.xlsx
+++ b/create_json/musicsketch_faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/jwalecka.github.io/create_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0767E68-C5D9-7B46-A258-15A0E2BD4507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDD7BE2-2F10-6646-96B6-568C541B98BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="31520" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
+    <workbookView xWindow="940" yWindow="1800" windowWidth="31520" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>Overview</t>
   </si>
@@ -45,9 +45,6 @@
     <t>What is the focus of MusicSketch?</t>
   </si>
   <si>
-    <t>We are particularly interested in helping songwriters and musicians at all levels capture and refine their music ideas on their mobile devices.  We aspire to deliver a product that will help artists create and refine their music with an intuitive and efficient design tool and then share those ideas as a lead-sheet or even a full piano score.</t>
-  </si>
-  <si>
     <t>How do I use MusicSketch to design music?</t>
   </si>
   <si>
@@ -57,21 +54,12 @@
     <t>Is MusicSketch helpful for creating a lead sheet?</t>
   </si>
   <si>
-    <t xml:space="preserve">We created MusicSketch specifically for musicians who want to capture their music ideas on their iPhone or iPad, create a lead sheet, and share their lead sheet with other musicians. </t>
-  </si>
-  <si>
     <t>How do I collaborate with other musicians?</t>
   </si>
   <si>
-    <t>Today you can collaborate with other musicians by Sharing a song from your library in the MusicSketch format. When another musician downloads the App, they can listen to your music, view your notation, and immediately make changes to their copy of your song. Our philosophy: Compose - Collaborate - Share.  Imagine changing a lead sheet at a gig, making a quick change, and sharing with your bandmates in seconds!</t>
-  </si>
-  <si>
     <t>What is the business model for MusicSketch?</t>
   </si>
   <si>
-    <t>The MusicSketch App will remain free for the foreseeable future and there will not be embedded advertising. However, at some point down the road, as more features become available, we will convert to a low-cost subscription model.</t>
-  </si>
-  <si>
     <t>Are my songs accessible by others?</t>
   </si>
   <si>
@@ -90,108 +78,51 @@
     <t>What does the rabbit button do?</t>
   </si>
   <si>
-    <t xml:space="preserve">The rabbit is an efficient mode for entering long runs of notes. The speed comes from advancing the staff cursor immediately after a note is entered on either the DIBO or on the keyboard without the need to confirm your selection. </t>
-  </si>
-  <si>
     <t>Songs</t>
   </si>
   <si>
     <t>How do I share a song?</t>
   </si>
   <si>
-    <t>To share a song from the Songs folder, swipe a song title right and then select from several sharing options in the menu. To collaborate with other musicians, choose the MusicSketch export option. Songs can be shared as M4A audio, a PDF, or MIDI.</t>
-  </si>
-  <si>
     <t>How do I delete a song?</t>
   </si>
   <si>
-    <t>To delete a song, swipe a cell in the Song List to the left, then tap the Trash Button.</t>
-  </si>
-  <si>
-    <t>Is there a way to recover a song once I have deleted it?</t>
-  </si>
-  <si>
-    <t>Yes. Go to the bottom of the Song List, tap on the Trash icon, tap on the song in question, and then tap on it to recover that song.  Deleted songs remain in the Trash until you clear the trash, or iOS needs to reclaim memory.</t>
-  </si>
-  <si>
-    <t>What is an Imported Song?</t>
-  </si>
-  <si>
-    <t>Imported Songs are songs shared with you by other MusicSketch users.  To import a song, click on the song, select the share sheet icon, and then select the MusicSketch App icon.</t>
-  </si>
-  <si>
     <t>What is the difference between a Demo Song and an Accompaniment?</t>
   </si>
   <si>
-    <t>A Demo Song is an off-copyright song our team entered for your enjoyment and to help you learn how to use MusicSketch. Accompaniments are helpful starting points, written in several music styles, to help stimulate a new melody idea.</t>
-  </si>
-  <si>
     <t>Why can’t I edit Demo Songs or Accompaniments?</t>
   </si>
   <si>
     <t xml:space="preserve">Only songs in the My Songs folder can be edited. To edit Demo Songs and Accompaniments you have to duplicate them first, which will add them to the My Songs folder. </t>
   </si>
   <si>
-    <t>To undo an action or sequence of actions, shake your iPhone and select Undo.</t>
-  </si>
-  <si>
     <t>Notation</t>
   </si>
   <si>
     <t>How do I enter a note on the staff?</t>
   </si>
   <si>
-    <t>Enter notes onto the selected staff by either tapping on one of the circle buttons on the DIBO or by pressing a key on the keyboard.  The DIBO currently supports 25 notes in either staff plus their flats and sharps.</t>
-  </si>
-  <si>
     <t>How do I add an accidental to a note?</t>
   </si>
   <si>
-    <t>To add an accidental to a note, long-press the associated DIBO button, then select an accidental from the pop-up menu. In Keyboard mode, the App uses an algorithm to automatically add accidentals to notes that are outside of the key signature. You can adjust the default accidental using the DIBO.</t>
-  </si>
-  <si>
     <t>How do I change note duration?</t>
   </si>
   <si>
-    <t>Change note duration by tapping the minus or plus on either end of the Duration Button.</t>
-  </si>
-  <si>
     <t>How do I create a Tie?</t>
   </si>
   <si>
-    <t>To add a Tie, place the cursor after the note/chord to be tied, then press the Tie button and a corresponding tied second note/chord will be created. Note that two notes cannot be tied after they have been entered separately on the Staff.</t>
-  </si>
-  <si>
     <t>How do I create a Run?</t>
   </si>
   <si>
-    <t>MusicSketch automatically creates Runs between notes of less than a quarter-note duration within a measure.</t>
-  </si>
-  <si>
     <t>How do I create a Triplet?</t>
   </si>
   <si>
-    <t>Create Triplets by highlighting a note with a time value quarter note or less, and then pressing the triplet button. Note that there must be enough time value remaining in the measure for the triplet to be added.</t>
-  </si>
-  <si>
-    <t>How do I copy notes and measures?</t>
-  </si>
-  <si>
-    <t>To copy notes/chords within a measure, first hold down on a note/chord in a musical element, select Copy from the pop-up menu, and then at any other cursor location in a song, again hold down the cursor and choose Paste from the pop-up menu. Note that there must be enough time value remaining in the measure for the musical element to be added./nIn Song View you can copy, insert, or paste completed measures by pressing and holding down on a measure, then making a selection from the pop-up menu. These functions only operate on measures in the currently displayed clef, not measures in the other clef.</t>
-  </si>
-  <si>
     <t>How do I view both staves at the same time?</t>
   </si>
   <si>
-    <t>From the edit measure view, pull down on the handle above the DIBO to show both measures. Tapping on either staff will activate the DIBO or Piano edit function.</t>
-  </si>
-  <si>
     <t>How do I add notes above and below the staff?</t>
   </si>
   <si>
-    <t>Add notes above or below the staff by tapping the small DIBO icons at the top and bottom of the DIBO, or by swiping up or down on the DIBO.</t>
-  </si>
-  <si>
     <t>What limits to notation are there in the app?</t>
   </si>
   <si>
@@ -204,9 +135,6 @@
     <t>How do I play a song?</t>
   </si>
   <si>
-    <t>To play a song, tap the play icon in the main song view, or tap and hold the icon to select playback in one or both clefs from the pop-up menu.</t>
-  </si>
-  <si>
     <t>How does Loop mode work?</t>
   </si>
   <si>
@@ -216,127 +144,155 @@
     <t>Can I play a single measure only?</t>
   </si>
   <si>
-    <t>When editing a measure, the visible measure can be played back. To switch staves, choose from the G and F clef selector at the top of the screen.  To play both staves, pull down on the handle above the edit selector, and when both staves are visible, press the play button.</t>
-  </si>
-  <si>
     <t>Settings Access</t>
   </si>
   <si>
     <t>How do I access settings?</t>
   </si>
   <si>
-    <t>Settings such as Title and Key are available when you create a new song. Some settings, including Tempo and Instrument, are accessible in Song View by tapping the Song Settings button &lt;button image&gt; in the top right corner.</t>
-  </si>
-  <si>
     <t>Audio Output</t>
   </si>
   <si>
     <t>How do I export audio?</t>
   </si>
   <si>
-    <t>You can create and export M4A Audio files or MIDI files from the Songs list by sliding a song title right, and then tapping the Share button. Keep in mind the audio conversion process may take longer than you expect!</t>
-  </si>
-  <si>
     <t>Lead Sheets</t>
   </si>
   <si>
     <t>How do I create a new lead sheet?</t>
   </si>
   <si>
-    <t>In the Add Song pop-up menu, choose Lead Sheet. This will create a song with only the G clef and will pre-populate all measures with slashes.</t>
-  </si>
-  <si>
     <t>How do I convert a piano score to a Lead Sheet?</t>
   </si>
   <si>
-    <t>When sharing and exporting a song, select the Lead Sheet PDF output format. This will create a PDF with only a G Clef and Chords changes.</t>
-  </si>
-  <si>
-    <t>The DIBO is our unique and patent pending Direct Interface BOard that we developed to make it easy and fast to enter music notation. The circular buttons on the DIBO map directly to the staff in either clef.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We designed the MusicSketch app so that you can capture a riff on-the-go. We want our app to be easy to learn and easy to use, even if you are writing an entire piano score. We are committed to supporting a collaborative experience at many levels; the first release provides the ability to easily share song files so multiple people can work together on a music idea./nOur innovative </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">irect </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nterface </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ard (DIBO) allows for quick and easy note entry, and the additional UI adapts additional notation elements.  To achieve these goals we oriented on a design point around notation critical for Lead Sheets.  While our platform doesn’t capture the entire functionality of desktop music publishing software, we think the tradeoff for speed, simplicity, and accessibility is more than worth it. /nWe appreciate and welcome input from all of our users.  New capabilities are in the works, but we will continue to make trade-offs to ensure that the MusicSketch App remains uncluttered and easy to use, allowing musicians at all levels to focus on their creative ideas.</t>
-    </r>
-  </si>
-  <si>
     <t>Is there a way to undo my last song change?</t>
   </si>
   <si>
     <t>Is there a way to undo my last notation change?</t>
   </si>
   <si>
-    <t>To undo an action or sequence of actions, shake the iPhone and select undo from the pop up menu.  Most, but not all notation related actions can be undone.</t>
+    <t>The Sketch Music App is designed to help songwriters and musicians at all levels capture music ideas on their mobile devices. We aspire to deliver a product that will make it simple for artists to create and refine their music, and then share those ideas as a lead-sheet. We are committed to supporting a collaborative experience at many levels; the first release provides the ability to easily share song files so multiple people can work together on a music idea. Our innovative Direct Interface BOard (DIBO) allows for quick and easy note entry, and our UI adapts additional notation elements. While our platform doesn’t capture the entire functionality of desktop music publishing software, we think the tradeoff for speed, simplicity, and accessibility is more than worth it. We appreciate and welcome input from all of our users.  New capabilities are in the works, but we will continue to make trade-offs to ensure that the MusicSketch App remains uncluttered and easy to use, allowing musicians at all levels to focus on their creative ideas.</t>
+  </si>
+  <si>
+    <t>We are particularly interested in helping songwriters and musicians at all levels capture and refine their music ideas on their mobile devices.</t>
+  </si>
+  <si>
+    <t>We created MusicSketch specifically for musicians who want to capture music ideas on their iPhone, share these ideas with other musicians, and publish their songs as a high-quality lead sheet.</t>
+  </si>
+  <si>
+    <t>Today you can collaborate with other musicians by sharing a song from your library in the MusicSketch format. When another musician downloads the App, they can listen to your music, view your notation, and immediately make changes to their copy of your song. Imagine changing a lead sheet at a gig, making a quick change, and sharing with your bandmates in seconds!</t>
+  </si>
+  <si>
+    <t>The Music Sketch App at launch is free for the first year and then converts to a low cost subscription model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rabbit button activates a mode that immediately advances the staff cursor after a single note is entered. </t>
+  </si>
+  <si>
+    <t>Swipe the cell to the right in the song-list view or tap the share button on the toolbar in the multi-measure view</t>
+  </si>
+  <si>
+    <t>What export formats are supported?</t>
+  </si>
+  <si>
+    <t>M4A Audio, PDF, MIDI, and MusicXML</t>
+  </si>
+  <si>
+    <t>Swipe a cell in the Song List to the left, then tap the Trash Button.</t>
+  </si>
+  <si>
+    <t>How can I recover a song that's been deleted?</t>
+  </si>
+  <si>
+    <t>Tap the trash icon at the bottom of the song list then tap the song cell to recover it.  Deleted songs remain in the trash until iOS reclaims memory.</t>
+  </si>
+  <si>
+    <t>How do I import a song?</t>
+  </si>
+  <si>
+    <t>Only files in the Sketch Music format can be imported.</t>
+  </si>
+  <si>
+    <t>When sent a sketch music file, tap on the file and select the Sketch Music App from the share sheet. It will appear in the imported song section of the song list.</t>
+  </si>
+  <si>
+    <t>What song formats can I import?</t>
+  </si>
+  <si>
+    <t>A Demo Song is an off-copyright song. Accompaniments are helpful starting points to help stimulate new music ideas.</t>
+  </si>
+  <si>
+    <t>Shake your iPhone and select Undo.</t>
+  </si>
+  <si>
+    <t>Tap a button on the DIBO or a key on the keyboard in the selected staff.</t>
+  </si>
+  <si>
+    <t>What range of notes is covered by the DIBO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DIBO supports 25 notes in either staff plus their flats and sharps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DIBO is our unique and patent pending Direct Interface BOard that we developed to make it easy and fast to enter music notation. The circular buttons on the DIBO map directly to the staff in either clef. The DIBO currently supports 25 notes in either staff plus the flats and sharps. This range was selected because it covers almost all music found in lead sheets while keeping the interface simple. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long-press the associated DIBO button, then select an accidental from the pop-up menu. The keyboard uses a default accidental algorithm and you must return to the DIBO to make adjustments. </t>
+  </si>
+  <si>
+    <t>Runs will automatically be generated between notes of less than a quarter-note duration within a measure.</t>
+  </si>
+  <si>
+    <t>Tap the minus or plus on either end of the Duration Button.</t>
+  </si>
+  <si>
+    <t>Tap the Tie Button to create a tie between identical notes (or chords).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlight a note with a time value of a quarter note or less, and then tap the triplet button. Each note can then be edited. </t>
+  </si>
+  <si>
+    <t>How do I copy notes?</t>
+  </si>
+  <si>
+    <t>How do I copy measures?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long press the measure in the multi-measure view and select Copy from the pop-up menu, then long press on another measure and select Paste from the pop-up menu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long press the note (or chord) and select Copy from the pop-up menu, then long press at any location and tap Paste from the pop-up menu. </t>
+  </si>
+  <si>
+    <t>Pull down on the handle above the DIBO to show both measures.</t>
+  </si>
+  <si>
+    <t>Tap the small DIBO icons at the top and bottom of the DIBO, or swipe up and down.</t>
+  </si>
+  <si>
+    <t>Shake the iPhone and select undo from the pop up menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap the play button in the navigation bar. Long press the icon to select which combination of staves to play. </t>
+  </si>
+  <si>
+    <t>When editing a measure, the visible measure can be played back by tapping on the play button. To play both staves, pull down the handle on the tray to make both staves visible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Settings are accesible by tapping the wheel icon on the home screen. Song settings are accessible by tapping the settings icon in the toolbar within a song. </t>
+  </si>
+  <si>
+    <t>You can create and export M4A Audio files or MIDI files by swiping a song title to the right from the song list or selecting the share button in the multi-measure view. Keep in mind the audio conversion process may take longer than you expect!</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,14 +303,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,16 +646,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1C598-4A4A-AF45-8787-7E798E6670C1}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,285 +763,329 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
+      <c r="A34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+      <c r="A35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/create_json/musicsketch_faqs.xlsx
+++ b/create_json/musicsketch_faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwalecka/jwalecka.github.io/create_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDD7BE2-2F10-6646-96B6-568C541B98BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBE5A3-C5B7-614B-81F1-33B97F9BD50D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1800" windowWidth="31520" windowHeight="18900" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
+    <workbookView xWindow="940" yWindow="1800" windowWidth="33160" windowHeight="20600" xr2:uid="{E9479D6A-3051-CF47-9481-B1BE55C8F822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Overview</t>
   </si>
@@ -285,7 +285,10 @@
     <t>You can create and export M4A Audio files or MIDI files by swiping a song title to the right from the song list or selecting the share button in the multi-measure view. Keep in mind the audio conversion process may take longer than you expect!</t>
   </si>
   <si>
-    <t>Placeholder</t>
+    <t>Placeholder 1</t>
+  </si>
+  <si>
+    <t>Placeholder 2</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1C598-4A4A-AF45-8787-7E798E6670C1}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1088,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
